--- a/2022.2/ventsys/BOM Ventsys V1I1.xlsx
+++ b/2022.2/ventsys/BOM Ventsys V1I1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\david\Google Drive\Unicamp\EA075\Nova pasta\ventsys\Project Outputs for Ventsys_V1I1\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meu Drive\Unicamp\EA075\Nova pasta\ventsys\Project Outputs for Ventsys_V1I1\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACC9852-BB6E-406B-B21D-C5877C675D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59BCD48F-E4E8-45D0-A449-D71A8CE184B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="4470" windowWidth="12960" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Part List Report" sheetId="3" r:id="rId1"/>
@@ -68,10 +68,10 @@
     <t>V1I1</t>
   </si>
   <si>
-    <t>29/11/2022</t>
-  </si>
-  <si>
-    <t>21:45</t>
+    <t>30/11/2022</t>
+  </si>
+  <si>
+    <t>08:37</t>
   </si>
   <si>
     <t>Comment</t>
@@ -944,7 +944,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:colOff>662940</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>3641</xdr:rowOff>
     </xdr:to>
@@ -1286,22 +1286,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="28.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="28.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="31" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="8" max="8" width="16.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="5"/>
@@ -1314,7 +1314,7 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
@@ -1324,7 +1324,7 @@
       <c r="E2" s="1"/>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
@@ -1339,7 +1339,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
@@ -1354,7 +1354,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
@@ -1370,7 +1370,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1381,7 +1381,7 @@
       <c r="J6" s="14"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
@@ -1400,7 +1400,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17" t="s">
@@ -1409,11 +1409,11 @@
       <c r="D8" s="17"/>
       <c r="E8" s="22">
         <f ca="1">TODAY()</f>
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="F8" s="23">
         <f ca="1">NOW()</f>
-        <v>44894.906345254632</v>
+        <v>44895.359148495372</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
@@ -1421,7 +1421,7 @@
       <c r="J8" s="21"/>
       <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -1454,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="31">
         <f>ROW(B10) - ROW($B$9)</f>
@@ -1489,7 +1489,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="32">
         <f>ROW(B11) - ROW($B$9)</f>
@@ -1524,7 +1524,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="31">
         <f>ROW(B12) - ROW($B$9)</f>
@@ -1559,7 +1559,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="32">
         <f>ROW(B13) - ROW($B$9)</f>
@@ -1594,7 +1594,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="31">
         <f>ROW(B14) - ROW($B$9)</f>
@@ -1629,7 +1629,7 @@
         <v>7.47</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="32">
         <f>ROW(B15) - ROW($B$9)</f>
@@ -1664,7 +1664,7 @@
         <v>6.12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="31">
         <f>ROW(B16) - ROW($B$9)</f>
@@ -1699,7 +1699,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="32">
         <f>ROW(B17) - ROW($B$9)</f>
@@ -1734,7 +1734,7 @@
         <v>3.52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="31">
         <f>ROW(B18) - ROW($B$9)</f>
@@ -1769,7 +1769,7 @@
         <v>19.71</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="32">
         <f>ROW(B19) - ROW($B$9)</f>
@@ -1804,7 +1804,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="31">
         <f>ROW(B20) - ROW($B$9)</f>
@@ -1839,7 +1839,7 @@
         <v>11.63</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="32">
         <f>ROW(B21) - ROW($B$9)</f>
@@ -1874,7 +1874,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="31">
         <f>ROW(B22) - ROW($B$9)</f>
@@ -1909,7 +1909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="32">
         <f>ROW(B23) - ROW($B$9)</f>
@@ -1944,7 +1944,7 @@
         <v>2.84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="31">
         <f>ROW(B24) - ROW($B$9)</f>
@@ -1979,7 +1979,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="32">
         <f>ROW(B25) - ROW($B$9)</f>
@@ -2014,7 +2014,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="31">
         <f>ROW(B26) - ROW($B$9)</f>
@@ -2049,7 +2049,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="25"/>
       <c r="C27" s="11"/>
@@ -2065,17 +2065,17 @@
         <v>97.02</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
